--- a/HR_Data/LWP2_0017_lab_timing.xlsx
+++ b/HR_Data/LWP2_0017_lab_timing.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CDRIVE\CTPC\LIVEWELL WEARTECH WEARABILITY ALL\WEARTECH compiled participant timings with participant info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophie\Documents\MATLAB\HeartRate\HR_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="In Lab" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,12 +684,12 @@
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="33.140625" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="34.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>13</v>
       </c>
@@ -699,11 +699,11 @@
       <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -717,7 +717,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -733,14 +733,14 @@
       <c r="G3" s="6">
         <v>0.53509259259259256</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" t="s">
         <v>70</v>
       </c>
-      <c r="L3">
+      <c r="J3">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -756,14 +756,14 @@
       <c r="G4" s="6">
         <v>0.53535879629629635</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s">
+      <c r="J4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -779,14 +779,14 @@
       <c r="G5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
+      <c r="J5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -805,14 +805,14 @@
       <c r="G6" s="6">
         <v>0.53590277777777773</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6" t="s">
         <v>73</v>
       </c>
-      <c r="L6">
+      <c r="J6">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -831,17 +831,17 @@
       <c r="G7" s="6">
         <v>0.53616898148148151</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I7" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -860,17 +860,17 @@
       <c r="G8" s="6">
         <v>0.53643518518518518</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M8" t="s">
+      <c r="K8" t="s">
         <v>86</v>
       </c>
-      <c r="N8" t="s">
+      <c r="L8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -892,17 +892,17 @@
       <c r="G9" s="6">
         <v>0.53672453703703704</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="K9" t="s">
         <v>86</v>
       </c>
-      <c r="N9" t="s">
+      <c r="L9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -921,17 +921,17 @@
       <c r="G10" s="6">
         <v>0.53697916666666667</v>
       </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
       <c r="K10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -950,14 +950,14 @@
       <c r="G11" s="6">
         <v>0.5372569444444445</v>
       </c>
-      <c r="K11" t="s">
+      <c r="I11" t="s">
         <v>80</v>
       </c>
-      <c r="L11" t="s">
+      <c r="J11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -980,7 +980,7 @@
         <v>0.53752314814814817</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -999,11 +999,11 @@
       <c r="G13" s="6">
         <v>0.53778935185185184</v>
       </c>
-      <c r="K13" t="s">
+      <c r="I13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1022,14 +1022,14 @@
       <c r="G14" s="6">
         <v>0.53806712962962966</v>
       </c>
-      <c r="K14" t="s">
+      <c r="I14" t="s">
         <v>87</v>
       </c>
-      <c r="L14" t="s">
+      <c r="J14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1051,14 +1051,14 @@
       <c r="G15" s="6">
         <v>0.53833333333333333</v>
       </c>
-      <c r="K15" t="s">
+      <c r="I15" t="s">
         <v>81</v>
       </c>
-      <c r="L15" t="s">
+      <c r="J15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>

--- a/HR_Data/LWP2_0017_lab_timing.xlsx
+++ b/HR_Data/LWP2_0017_lab_timing.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophie\Documents\MATLAB\HeartRate\HR_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRIVE\CTPC\LIVEWELL WEARTECH WEARABILITY ALL\WEARTECH compiled participant timings with participant info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="In Lab" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -352,7 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -669,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,12 +683,12 @@
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="33.140625" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="34.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>13</v>
       </c>
@@ -699,11 +698,11 @@
       <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -717,7 +716,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -730,17 +729,17 @@
       <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.53509259259259256</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -753,17 +752,17 @@
       <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.53535879629629635</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -779,14 +778,14 @@
       <c r="G5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -802,22 +801,22 @@
       <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.53590277777777773</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.52361111111111114</v>
+      <c r="B7" s="4">
+        <v>0.5239583333333333</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -828,25 +827,25 @@
       <c r="F7" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.53616898148148151</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.53125</v>
+      <c r="B8" s="4">
+        <v>0.53130787037037031</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -857,25 +856,25 @@
       <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.53643518518518518</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>86</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.53333333333333333</v>
+      <c r="B9" s="4">
+        <v>0.53276620370370364</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -889,25 +888,25 @@
       <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.53672453703703704</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>86</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.53472222222222221</v>
+      <c r="B10" s="4">
+        <v>0.53440972222222227</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -918,25 +917,25 @@
       <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.53697916666666667</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>79</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>84</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.54305555555555551</v>
+      <c r="B11" s="4">
+        <v>0.54287037037037034</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -947,22 +946,22 @@
       <c r="F11" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>0.5372569444444445</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>80</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5">
-        <v>0.5444444444444444</v>
+      <c r="B12" s="4">
+        <v>0.54487268518518517</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -976,16 +975,16 @@
       <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.53752314814814817</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
-        <v>0.54652777777777783</v>
+      <c r="B13" s="4">
+        <v>0.54604166666666665</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -996,19 +995,19 @@
       <c r="F13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>0.53778935185185184</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.5541666666666667</v>
+      <c r="B14" s="4">
+        <v>0.55407407407407405</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -1019,22 +1018,22 @@
       <c r="F14" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0.53806712962962966</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>87</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5">
-        <v>0.55555555555555558</v>
+      <c r="B15" s="4">
+        <v>0.55593749999999997</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1048,22 +1047,22 @@
       <c r="F15" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>0.53833333333333333</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>81</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>0.55694444444444446</v>
+      <c r="B16" s="4">
+        <v>0.55600694444444443</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1074,7 +1073,7 @@
       <c r="F16" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>0.538599537037037</v>
       </c>
     </row>
@@ -1082,8 +1081,8 @@
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5">
-        <v>0.55972222222222223</v>
+      <c r="B17" s="4">
+        <v>0.55979166666666669</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1094,7 +1093,7 @@
       <c r="F17" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>0.53886574074074078</v>
       </c>
     </row>
@@ -1102,8 +1101,8 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="5">
-        <v>0.56736111111111109</v>
+      <c r="B18" s="4">
+        <v>0.56718750000000007</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1114,7 +1113,7 @@
       <c r="F18" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>0.53913194444444446</v>
       </c>
     </row>
@@ -1122,8 +1121,8 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5">
-        <v>0.56874999999999998</v>
+      <c r="B19" s="4">
+        <v>0.56938657407407411</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -1137,7 +1136,7 @@
       <c r="F19" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>0.53940972222222217</v>
       </c>
     </row>
@@ -1145,8 +1144,8 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5">
-        <v>0.57013888888888886</v>
+      <c r="B20" s="4">
+        <v>0.56981481481481489</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1157,7 +1156,7 @@
       <c r="F20" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>0.53967592592592595</v>
       </c>
     </row>
@@ -1165,8 +1164,8 @@
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="5">
-        <v>0.57291666666666663</v>
+      <c r="B21" s="4">
+        <v>0.57275462962962964</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -1177,7 +1176,7 @@
       <c r="F21" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>0.53994212962962962</v>
       </c>
     </row>
@@ -1185,8 +1184,8 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="5">
-        <v>0.57361111111111118</v>
+      <c r="B22" s="4">
+        <v>0.57374999999999998</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -1197,7 +1196,7 @@
       <c r="F22" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>0.54021990740740744</v>
       </c>
     </row>
@@ -1205,8 +1204,8 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="5">
-        <v>0.5756944444444444</v>
+      <c r="B23" s="4">
+        <v>0.57648148148148148</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -1220,7 +1219,7 @@
       <c r="F23" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>0.54048611111111111</v>
       </c>
     </row>
@@ -1228,8 +1227,8 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="5">
-        <v>0.57708333333333328</v>
+      <c r="B24" s="4">
+        <v>0.57704861111111116</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -1240,7 +1239,7 @@
       <c r="F24" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>0.54076388888888893</v>
       </c>
     </row>
@@ -1257,7 +1256,7 @@
       <c r="F25" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>0.54101851851851845</v>
       </c>
     </row>
@@ -1268,7 +1267,7 @@
       <c r="F26" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>0.54129629629629628</v>
       </c>
     </row>
@@ -1282,7 +1281,7 @@
       <c r="F27" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>0.54156250000000006</v>
       </c>
     </row>
@@ -1293,7 +1292,7 @@
       <c r="F28" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>0.54182870370370373</v>
       </c>
     </row>
@@ -1304,7 +1303,7 @@
       <c r="F29" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>0.5420949074074074</v>
       </c>
     </row>
@@ -1315,7 +1314,7 @@
       <c r="F30" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>0.54237268518518522</v>
       </c>
     </row>
